--- a/output.xlsx
+++ b/output.xlsx
@@ -87,7 +87,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -95,17 +95,17 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="6.6000000000000005"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="7" max="7" bestFit="0" customWidth="0"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="4.4"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="4.4"/>
     <col min="11" max="11" bestFit="0" customWidth="0"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="5.5"/>
     <col min="14" max="14" bestFit="0" customWidth="0"/>
     <col min="15" max="15" bestFit="0" customWidth="0"/>
     <col min="16" max="16" bestFit="0" customWidth="0"/>
@@ -120,24 +120,24 @@
     <col min="25" max="25" bestFit="0" customWidth="0"/>
     <col min="26" max="26" bestFit="0" customWidth="0"/>
     <col min="27" max="27" bestFit="0" customWidth="0"/>
-    <col min="28" max="28" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="29" max="29" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="28" max="28" bestFit="0" customWidth="0"/>
+    <col min="29" max="29" bestFit="0" customWidth="0"/>
     <col min="30" max="30" bestFit="0" customWidth="0"/>
-    <col min="31" max="31" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="32" max="32" bestFit="0" customWidth="0"/>
-    <col min="33" max="33" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="34" max="34" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="31" max="31" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="32" max="32" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="33" max="33" bestFit="0" customWidth="0"/>
+    <col min="34" max="34" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="35" max="35" bestFit="0" customWidth="0"/>
-    <col min="36" max="36" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="37" max="37" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="36" max="36" bestFit="0" customWidth="0"/>
+    <col min="37" max="37" bestFit="0" customWidth="0"/>
     <col min="38" max="38" bestFit="0" customWidth="0"/>
-    <col min="39" max="39" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="40" max="40" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="41" max="41" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="42" max="42" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="43" max="43" bestFit="0" customWidth="0"/>
-    <col min="44" max="44" bestFit="0" customWidth="0"/>
-    <col min="45" max="45" bestFit="0" customWidth="0"/>
+    <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="40" max="40" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="42" max="42" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="43" max="43" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="44" max="44" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="45" max="45" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="46" max="46" bestFit="0" customWidth="0"/>
     <col min="47" max="47" bestFit="0" customWidth="0"/>
     <col min="48" max="48" bestFit="0" customWidth="0"/>
@@ -145,7 +145,10 @@
     <col min="50" max="50" bestFit="0" customWidth="0"/>
     <col min="51" max="51" bestFit="0" customWidth="0"/>
     <col min="52" max="52" bestFit="0" customWidth="0"/>
-    <col min="53" max="53" bestFit="1" customWidth="1" width="7.700000000000001"/>
+    <col min="53" max="53" bestFit="0" customWidth="0"/>
+    <col min="54" max="54" bestFit="0" customWidth="0"/>
+    <col min="55" max="55" bestFit="0" customWidth="0"/>
+    <col min="56" max="56" bestFit="0" customWidth="0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -153,17 +156,17 @@
         <v>2021</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>4553</v>
+        <v>1234</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>1°</t>
+          <t>prekinder</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
@@ -171,29 +174,27 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G1" s="2">
-        <v>44197.0</v>
-      </c>
+      <c r="G1" s="0"/>
       <c r="H1" s="0" t="n">
-        <v>11111111</v>
+        <v>19572933</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0" t="inlineStr">
         <is>
-          <t>NOMBRE 1</t>
+          <t>meraki</t>
         </is>
       </c>
       <c r="M1" s="0" t="inlineStr">
         <is>
-          <t>APELLIDO 1</t>
+          <t>ql</t>
         </is>
       </c>
       <c r="N1" s="0"/>
@@ -210,56 +211,56 @@
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
-      <c r="AB1" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 1</t>
-        </is>
-      </c>
-      <c r="AC1" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
       <c r="AD1" s="0"/>
-      <c r="AE1" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0" t="n">
-        <v>8136910</v>
-      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>apoderado</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>apellido</t>
+        </is>
+      </c>
+      <c r="AG1" s="0"/>
       <c r="AH1" s="0" t="n">
-        <v>0</v>
+        <v>12345678</v>
       </c>
       <c r="AI1" s="0"/>
-      <c r="AJ1" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 2</t>
-        </is>
-      </c>
-      <c r="AK1" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
       <c r="AL1" s="0"/>
       <c r="AM1" s="0" t="inlineStr">
         <is>
-          <t>email@papinotas.com</t>
-        </is>
-      </c>
-      <c r="AN1" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AO1" s="0" t="n">
+          <t>Apoderado 2 </t>
+        </is>
+      </c>
+      <c r="AN1" s="0" t="inlineStr">
+        <is>
+          <t>Apellido paterno</t>
+        </is>
+      </c>
+      <c r="AO1" s="0" t="inlineStr">
+        <is>
+          <t>apellido materno</t>
+        </is>
+      </c>
+      <c r="AP1" s="0" t="inlineStr">
+        <is>
+          <t>dinoctm@gmail.com</t>
+        </is>
+      </c>
+      <c r="AQ1" s="0" t="n">
+        <v>111111111</v>
+      </c>
+      <c r="AR1" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP1" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
+      <c r="AS1" s="0" t="n">
+        <v>12345678</v>
+      </c>
       <c r="AT1" s="0"/>
       <c r="AU1" s="0"/>
       <c r="AV1" s="0"/>
@@ -267,26 +268,27 @@
       <c r="AX1" s="0"/>
       <c r="AY1" s="0"/>
       <c r="AZ1" s="0"/>
-      <c r="BA1" s="0" t="n">
-        <v>2021</v>
-      </c>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4553</v>
+        <v>1234</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>1°</t>
+          <t>prekinder</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
@@ -294,29 +296,27 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G2" s="2">
-        <v>44197.0</v>
-      </c>
+      <c r="G2" s="0"/>
       <c r="H2" s="0" t="n">
-        <v>11111111</v>
+        <v>19572933</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>NOMBRE 1</t>
+          <t>meraki</t>
         </is>
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>APELLIDO 1</t>
+          <t>ql</t>
         </is>
       </c>
       <c r="N2" s="0"/>
@@ -333,56 +333,56 @@
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 1</t>
-        </is>
-      </c>
-      <c r="AC2" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
       <c r="AD2" s="0"/>
-      <c r="AE2" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0" t="n">
-        <v>8136910</v>
-      </c>
+      <c r="AE2" s="0" t="inlineStr">
+        <is>
+          <t>apoderado</t>
+        </is>
+      </c>
+      <c r="AF2" s="0" t="inlineStr">
+        <is>
+          <t>apellido</t>
+        </is>
+      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0" t="n">
-        <v>0</v>
+        <v>12345678</v>
       </c>
       <c r="AI2" s="0"/>
-      <c r="AJ2" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 2</t>
-        </is>
-      </c>
-      <c r="AK2" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
       <c r="AL2" s="0"/>
       <c r="AM2" s="0" t="inlineStr">
         <is>
-          <t>email@papinotas.com</t>
-        </is>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AO2" s="0" t="n">
+          <t>Apoderado 2 </t>
+        </is>
+      </c>
+      <c r="AN2" s="0" t="inlineStr">
+        <is>
+          <t>Apellido paterno</t>
+        </is>
+      </c>
+      <c r="AO2" s="0" t="inlineStr">
+        <is>
+          <t>apellido materno</t>
+        </is>
+      </c>
+      <c r="AP2" s="0" t="inlineStr">
+        <is>
+          <t>dinoctm@gmail.com</t>
+        </is>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>111111111</v>
+      </c>
+      <c r="AR2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP2" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
+      <c r="AS2" s="0" t="n">
+        <v>12345678</v>
+      </c>
       <c r="AT2" s="0"/>
       <c r="AU2" s="0"/>
       <c r="AV2" s="0"/>
@@ -390,26 +390,27 @@
       <c r="AX2" s="0"/>
       <c r="AY2" s="0"/>
       <c r="AZ2" s="0"/>
-      <c r="BA2" s="0" t="n">
-        <v>2021</v>
-      </c>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4553</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>1°</t>
+          <t>prekinder</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
@@ -417,29 +418,27 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G3" s="2">
-        <v>44197.0</v>
-      </c>
+      <c r="G3" s="0"/>
       <c r="H3" s="0" t="n">
-        <v>22222222</v>
+        <v>19572933</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>NOMBRE 2</t>
+          <t>meraki</t>
         </is>
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>APELLIDO 2</t>
+          <t>ql</t>
         </is>
       </c>
       <c r="N3" s="0"/>
@@ -456,56 +455,56 @@
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 1</t>
-        </is>
-      </c>
-      <c r="AC3" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
       <c r="AD3" s="0"/>
-      <c r="AE3" s="0" t="n">
-        <v>22222222</v>
-      </c>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0" t="n">
-        <v>10652917</v>
-      </c>
+      <c r="AE3" s="0" t="inlineStr">
+        <is>
+          <t>apoderado</t>
+        </is>
+      </c>
+      <c r="AF3" s="0" t="inlineStr">
+        <is>
+          <t>apellido</t>
+        </is>
+      </c>
+      <c r="AG3" s="0"/>
       <c r="AH3" s="0" t="n">
-        <v>5</v>
+        <v>12345678</v>
       </c>
       <c r="AI3" s="0"/>
-      <c r="AJ3" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 2</t>
-        </is>
-      </c>
-      <c r="AK3" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
       <c r="AL3" s="0"/>
       <c r="AM3" s="0" t="inlineStr">
         <is>
-          <t>email@papinotas.com</t>
-        </is>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AO3" s="0" t="n">
+          <t>Apoderado 2 </t>
+        </is>
+      </c>
+      <c r="AN3" s="0" t="inlineStr">
+        <is>
+          <t>Apellido paterno</t>
+        </is>
+      </c>
+      <c r="AO3" s="0" t="inlineStr">
+        <is>
+          <t>apellido materno</t>
+        </is>
+      </c>
+      <c r="AP3" s="0" t="inlineStr">
+        <is>
+          <t>dinoctm@gmail.com</t>
+        </is>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>111111111</v>
+      </c>
+      <c r="AR3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP3" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
+      <c r="AS3" s="0" t="n">
+        <v>12345678</v>
+      </c>
       <c r="AT3" s="0"/>
       <c r="AU3" s="0"/>
       <c r="AV3" s="0"/>
@@ -513,26 +512,27 @@
       <c r="AX3" s="0"/>
       <c r="AY3" s="0"/>
       <c r="AZ3" s="0"/>
-      <c r="BA3" s="0" t="n">
-        <v>2021</v>
-      </c>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4553</v>
+        <v>1234</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>1°</t>
+          <t>prekinder</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
@@ -540,29 +540,27 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G4" s="2">
-        <v>44197.0</v>
-      </c>
+      <c r="G4" s="0"/>
       <c r="H4" s="0" t="n">
-        <v>22222222</v>
+        <v>19572933</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>NOMBRE 2</t>
+          <t>meraki</t>
         </is>
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>APELLIDO 2</t>
+          <t>ql</t>
         </is>
       </c>
       <c r="N4" s="0"/>
@@ -579,56 +577,56 @@
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
-      <c r="AB4" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 1</t>
-        </is>
-      </c>
-      <c r="AC4" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
-      <c r="AE4" s="0" t="n">
-        <v>22222222</v>
-      </c>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0" t="n">
-        <v>10652917</v>
-      </c>
+      <c r="AE4" s="0" t="inlineStr">
+        <is>
+          <t>apoderado</t>
+        </is>
+      </c>
+      <c r="AF4" s="0" t="inlineStr">
+        <is>
+          <t>apellido</t>
+        </is>
+      </c>
+      <c r="AG4" s="0"/>
       <c r="AH4" s="0" t="n">
-        <v>5</v>
+        <v>12345678</v>
       </c>
       <c r="AI4" s="0"/>
-      <c r="AJ4" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 2</t>
-        </is>
-      </c>
-      <c r="AK4" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
       <c r="AL4" s="0"/>
       <c r="AM4" s="0" t="inlineStr">
         <is>
-          <t>email@papinotas.com</t>
-        </is>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AO4" s="0" t="n">
+          <t>Apoderado 2 </t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
+        <is>
+          <t>Apellido paterno</t>
+        </is>
+      </c>
+      <c r="AO4" s="0" t="inlineStr">
+        <is>
+          <t>apellido materno</t>
+        </is>
+      </c>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>dinoctm@gmail.com</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>111111111</v>
+      </c>
+      <c r="AR4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP4" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AQ4" s="0"/>
-      <c r="AR4" s="0"/>
-      <c r="AS4" s="0"/>
+      <c r="AS4" s="0" t="n">
+        <v>12345678</v>
+      </c>
       <c r="AT4" s="0"/>
       <c r="AU4" s="0"/>
       <c r="AV4" s="0"/>
@@ -636,132 +634,10 @@
       <c r="AX4" s="0"/>
       <c r="AY4" s="0"/>
       <c r="AZ4" s="0"/>
-      <c r="BA4" s="0" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4553</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>310</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>1°</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" s="2">
-        <v>44197.0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>33333333</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>NOMBRE 3</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO 3</t>
-        </is>
-      </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
-      <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 1</t>
-        </is>
-      </c>
-      <c r="AC5" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0" t="n">
-        <v>33333333</v>
-      </c>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0" t="n">
-        <v>14930275</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="0"/>
-      <c r="AJ5" s="0" t="inlineStr">
-        <is>
-          <t>APODERADO 2</t>
-        </is>
-      </c>
-      <c r="AK5" s="0" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
-      <c r="AL5" s="0"/>
-      <c r="AM5" s="0" t="inlineStr">
-        <is>
-          <t>email@papinotas.com</t>
-        </is>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="0" t="n">
-        <v>22222222</v>
-      </c>
-      <c r="AQ5" s="0"/>
-      <c r="AR5" s="0"/>
-      <c r="AS5" s="0"/>
-      <c r="AT5" s="0"/>
-      <c r="AU5" s="0"/>
-      <c r="AV5" s="0"/>
-      <c r="AW5" s="0"/>
-      <c r="AX5" s="0"/>
-      <c r="AY5" s="0"/>
-      <c r="AZ5" s="0"/>
-      <c r="BA5" s="0" t="n">
-        <v>2021</v>
-      </c>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
